--- a/bom.xlsx
+++ b/bom.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiltum/git/arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="6840"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="18220" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>RefDes</t>
   </si>
@@ -199,13 +207,22 @@
   </si>
   <si>
     <t>SFH6156</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>KLS2-300-5.00-03P-2S (DG300-5.0-03P-12)</t>
+  </si>
+  <si>
+    <t>э</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +356,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25.3"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="33">
@@ -682,52 +705,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1039,13 +1063,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1072,8 +1104,14 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>805</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1083,8 +1121,14 @@
       <c r="D3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>603</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1097,8 +1141,14 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>805</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1158,14 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>603</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1119,8 +1175,11 @@
       <c r="D6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1130,8 +1189,11 @@
       <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1141,8 +1203,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1217,14 @@
       <c r="D9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1163,8 +1234,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1174,8 +1248,11 @@
       <c r="D11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1185,8 +1262,11 @@
       <c r="D12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1196,8 +1276,11 @@
       <c r="D13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1210,8 +1293,14 @@
       <c r="D14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1224,8 +1313,11 @@
       <c r="D15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1238,8 +1330,11 @@
       <c r="D16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1252,8 +1347,11 @@
       <c r="D17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1266,8 +1364,11 @@
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1280,8 +1381,11 @@
       <c r="D19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1291,8 +1395,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1302,8 +1409,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1313,8 +1423,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1324,8 +1437,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1335,8 +1451,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1346,8 +1465,11 @@
       <c r="D25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1357,8 +1479,11 @@
       <c r="D26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>107</v>
       </c>
